--- a/xlsForms/Plantilla para encuestas.xlsx
+++ b/xlsForms/Plantilla para encuestas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA2459-2C1D-4B4B-A0C4-DA37B01EDBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5FA89E-F0CF-487D-9E84-EAFD8BCA73BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -90,13 +90,442 @@
   </si>
   <si>
     <t>submission_url</t>
+  </si>
+  <si>
+    <t>encuestador</t>
+  </si>
+  <si>
+    <t>Encuestador</t>
+  </si>
+  <si>
+    <t>permite_entrevista</t>
+  </si>
+  <si>
+    <t>Permite entrevista:</t>
+  </si>
+  <si>
+    <t>coordenadas_manual</t>
+  </si>
+  <si>
+    <t>Coordenadas (manual)  (Este, norte)</t>
+  </si>
+  <si>
+    <t>coordenadas</t>
+  </si>
+  <si>
+    <t>Coordenadas Origen Nacional</t>
+  </si>
+  <si>
+    <t>punto_gps3</t>
+  </si>
+  <si>
+    <t>Punto GPS Coordenadas Origen Nacional</t>
+  </si>
+  <si>
+    <t>nombre_establecimiento</t>
+  </si>
+  <si>
+    <t>1. Nombre del establecimiento:</t>
+  </si>
+  <si>
+    <t>${permite_entrevista} = 'yes'</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>2. Dirección:</t>
+  </si>
+  <si>
+    <t>telefono_contacto</t>
+  </si>
+  <si>
+    <t>3. Teléfono de contacto:</t>
+  </si>
+  <si>
+    <t>actividad_economica</t>
+  </si>
+  <si>
+    <t>4. Actividad Económica principal:</t>
+  </si>
+  <si>
+    <t>inicio_actividad</t>
+  </si>
+  <si>
+    <t>5. ¿En qué año inició la actividad?:</t>
+  </si>
+  <si>
+    <t>propietario</t>
+  </si>
+  <si>
+    <t>6. Propietario:</t>
+  </si>
+  <si>
+    <t>procedencia_propietario</t>
+  </si>
+  <si>
+    <t>7. Procedencia del propietario:</t>
+  </si>
+  <si>
+    <t>lugar_residencia</t>
+  </si>
+  <si>
+    <t>8. Lugar de residencia del propietario:</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t>9. Administrador:</t>
+  </si>
+  <si>
+    <t>procedencia_administrador</t>
+  </si>
+  <si>
+    <t>10. Procedencia del administrador:</t>
+  </si>
+  <si>
+    <t>lugar_residencia_admin</t>
+  </si>
+  <si>
+    <t>11. Lugar de residencia del administrador:</t>
+  </si>
+  <si>
+    <t>actividad_como</t>
+  </si>
+  <si>
+    <t>12. Este establecimiento desarrolla su actividad como:</t>
+  </si>
+  <si>
+    <t>tipo_actividad</t>
+  </si>
+  <si>
+    <t>13. Tipo de actividad:</t>
+  </si>
+  <si>
+    <t>producto_principal</t>
+  </si>
+  <si>
+    <t>14. ¿Cuál es el principal producto o servicio que oferta?</t>
+  </si>
+  <si>
+    <t>tenencia_propiedad</t>
+  </si>
+  <si>
+    <t>15. Tenencia de la propiedad:</t>
+  </si>
+  <si>
+    <t>canon_arrendamiento</t>
+  </si>
+  <si>
+    <t>16. Canon de arrendamiento:</t>
+  </si>
+  <si>
+    <t>${tenencia_propiedad} = 'arrendada'</t>
+  </si>
+  <si>
+    <t>actividad_ingresos</t>
+  </si>
+  <si>
+    <t>17. ¿De qué actividad proviene la mayor parte de ingresos obtenidos?</t>
+  </si>
+  <si>
+    <t>frecuencia_ingresos</t>
+  </si>
+  <si>
+    <t>18. Frecuencia con la que recibe ingresos por actividad:</t>
+  </si>
+  <si>
+    <t>ingresos</t>
+  </si>
+  <si>
+    <t>19. ¿Cuál es la cantidad de ingresos recibidos por la actividad?:</t>
+  </si>
+  <si>
+    <t>horario_inicio</t>
+  </si>
+  <si>
+    <t>20.1.  ¿Hora de inicio de la actividad?</t>
+  </si>
+  <si>
+    <t>horario_fin</t>
+  </si>
+  <si>
+    <t>20.2. ¿Hora de fin de la actividad?</t>
+  </si>
+  <si>
+    <t>tiene_registro</t>
+  </si>
+  <si>
+    <t>21. ¿Tiene registro de cámara y comercio?</t>
+  </si>
+  <si>
+    <t>lugares_comercializa</t>
+  </si>
+  <si>
+    <t>22. ¿En qué lugares comercializa?</t>
+  </si>
+  <si>
+    <t>compra_vereda</t>
+  </si>
+  <si>
+    <t>23. ¿Compra productos o insumos en la vereda?</t>
+  </si>
+  <si>
+    <t>comercializa_otra_vereda</t>
+  </si>
+  <si>
+    <t>24. ¿Comercializa productos o insumos en otras veredas?</t>
+  </si>
+  <si>
+    <t>donde_comercializa</t>
+  </si>
+  <si>
+    <t>24.1. ¿En qué lugares?</t>
+  </si>
+  <si>
+    <t>${comercializa_otra_vereda} ='yes'</t>
+  </si>
+  <si>
+    <t>estrato</t>
+  </si>
+  <si>
+    <t>25. Estrato:</t>
+  </si>
+  <si>
+    <t>servicios_publicos</t>
+  </si>
+  <si>
+    <t>26. ¿Cuánto pagó el último mes por concepto de servicios públicos?</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>select_one actividad_como or_other</t>
+  </si>
+  <si>
+    <t>select_multiple tipo_actividad</t>
+  </si>
+  <si>
+    <t>select_one tenencia or_other</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>select_one frecuencia</t>
+  </si>
+  <si>
+    <t>select_one ingresos or_other</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Seleccione la hora de inicio.</t>
+  </si>
+  <si>
+    <t>Seleccione una hora posterior a la de inicio.</t>
+  </si>
+  <si>
+    <t>select_multiple lugares_comercializa or_other</t>
+  </si>
+  <si>
+    <t>select_one estrato</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>Persona natural</t>
+  </si>
+  <si>
+    <t>unipersonal</t>
+  </si>
+  <si>
+    <t>Empresa unipersonal</t>
+  </si>
+  <si>
+    <t>cooperativa</t>
+  </si>
+  <si>
+    <t>Cooperativa</t>
+  </si>
+  <si>
+    <t>sociedad_hecho</t>
+  </si>
+  <si>
+    <t>Sociedad de hecho</t>
+  </si>
+  <si>
+    <t>predio</t>
+  </si>
+  <si>
+    <t>Predio</t>
+  </si>
+  <si>
+    <t>sociedad_comercial</t>
+  </si>
+  <si>
+    <t>Sociedad Comercial</t>
+  </si>
+  <si>
+    <t>agricola</t>
+  </si>
+  <si>
+    <t>Agrícola</t>
+  </si>
+  <si>
+    <t>pecuaria</t>
+  </si>
+  <si>
+    <t>Pecuaria</t>
+  </si>
+  <si>
+    <t>agroindustrial</t>
+  </si>
+  <si>
+    <t>Agroindustrial</t>
+  </si>
+  <si>
+    <t>servicios</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>manufactura</t>
+  </si>
+  <si>
+    <t>Manufactura</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>servicios_hidrocarburos</t>
+  </si>
+  <si>
+    <t>Servicios prestados a hidrocarburos</t>
+  </si>
+  <si>
+    <t>mineria</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>tenencia</t>
+  </si>
+  <si>
+    <t>propia</t>
+  </si>
+  <si>
+    <t>Propia</t>
+  </si>
+  <si>
+    <t>administrada</t>
+  </si>
+  <si>
+    <t>Administrada</t>
+  </si>
+  <si>
+    <t>arrendada</t>
+  </si>
+  <si>
+    <t>Arrendada</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>diario</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>quincenal</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>semestral</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>inferior_smlv</t>
+  </si>
+  <si>
+    <t>Inferiores al SMLV</t>
+  </si>
+  <si>
+    <t>igual_smlv</t>
+  </si>
+  <si>
+    <t>Igual al SMLV</t>
+  </si>
+  <si>
+    <t>entre_1y2_smlv</t>
+  </si>
+  <si>
+    <t>Entre 1 y 2 SMLV</t>
+  </si>
+  <si>
+    <t>superior_2</t>
+  </si>
+  <si>
+    <t>Superior a 2 SMLV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +542,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -177,6 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,19 +894,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -517,6 +954,555 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{FB8D16EC-B84B-4FA0-ABB5-08DF1FC3B6DC}">
@@ -529,13 +1515,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0054A61-D1E8-452D-BF66-22C6C98C8C0C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
@@ -575,6 +1561,314 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,11 +1878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DFFDC3-E07D-46A5-90D7-FEF7A1A7015B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
